--- a/excel_to_markdown.xlsx
+++ b/excel_to_markdown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakubsobotka/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakubsobotka/Projects/Engeto_akademie/Projektovy_ukol/task_manager/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B839EA48-BC08-A441-846F-E0CAB6FAB63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF61C8B-00CA-C04A-9878-CCF798DB5A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2800" yWindow="-20820" windowWidth="38080" windowHeight="20660" xr2:uid="{893919A9-A017-E740-A6B4-29EFB89517F1}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="33600" windowHeight="18660" xr2:uid="{893919A9-A017-E740-A6B4-29EFB89517F1}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="109">
   <si>
     <t>Scénář</t>
   </si>
@@ -180,6 +180,189 @@
   </si>
   <si>
     <t>Oblast - Zobrazit všechny úkoly</t>
+  </si>
+  <si>
+    <t>Ověří, že se zobrazí uložený úkol</t>
+  </si>
+  <si>
+    <t>Při zadání vollby 2 zobrazí seznam všech uložených úkolů</t>
+  </si>
+  <si>
+    <t>1. spustíme program, 2. zadáme volbu č. 2 - "Zobrazit všechny úkoly</t>
+  </si>
+  <si>
+    <t>Při výběru volby č. 2 se zobrazí seznam všech uložených úkolů</t>
+  </si>
+  <si>
+    <t>Program po výběru volby č. 2 správně zobrazil seznam uložených úkolů.</t>
+  </si>
+  <si>
+    <t>Scénář ověřuje, že se zobrazuje seznam úkolů. Jedná se pozitivní scénář.</t>
+  </si>
+  <si>
+    <t>Ověří, že při zadání nesprávného čísla úkolu vypíše chybovou hlášku</t>
+  </si>
+  <si>
+    <t>1. spustíme program, 2. zadáme volbu č. 3 - "Odstranit úkol", 3. zvolíme jiné číslo úkolu, než které figuruje v seznamu úkolů</t>
+  </si>
+  <si>
+    <t>Program při zadání nesprávného čísla úkolu vypíše chybovou hlášku.</t>
+  </si>
+  <si>
+    <t>Program při zadání nesprávného čísla úkolu vypsal chybovou hlášku</t>
+  </si>
+  <si>
+    <t>Scénář ověřuje, že funguje kontrola na zadání nesprávného čísla úkolu. Jedná se o negativní scénář.</t>
+  </si>
+  <si>
+    <t>Zobrazení prázdného seznamu</t>
+  </si>
+  <si>
+    <t>Při zadání vollby 2 zobrazí prázdný seznam</t>
+  </si>
+  <si>
+    <t>Při výběru volby č. 2 a pokud bude seznam prázdný - zobrazí hlášku, že je seznam úkolů prázdný.</t>
+  </si>
+  <si>
+    <t>Program po výběru volby č. 2 správně zobrazil hlášku.</t>
+  </si>
+  <si>
+    <t>Scénář ověřuje, že se zobrazuje informace v případě, že v seznamu nejsou žádné úkoly. Jedná se o pozitivní scénář.</t>
+  </si>
+  <si>
+    <t>Oblast - Odstranit úkol</t>
+  </si>
+  <si>
+    <t>Odstranění existujícího úkolu</t>
+  </si>
+  <si>
+    <t>1. spustíme program, 2. zadáme volbu č. 3 - "Odstranit úkol", 3. zvolíme číslo úkolu, který figuruje v seznamu úkolů</t>
+  </si>
+  <si>
+    <t>Program správně odstraní úkol a vypíše hlášku, že byl úkol (Název) odstraněn.</t>
+  </si>
+  <si>
+    <t>Program při výběru volby č. 3 a volbě čísla úkolu správně úkol odstranil a zobrazil o tomto kroku oznámení.</t>
+  </si>
+  <si>
+    <t>Scénář ověřuje, že správně funguje odstranění existujících úkolů. Jedná se o pozitivní scénář.</t>
+  </si>
+  <si>
+    <t>Použití nečíslného vstupu</t>
+  </si>
+  <si>
+    <t>V menu přes volbu č. 3 zvolíme odstranění úkolu</t>
+  </si>
+  <si>
+    <t>1. spustíme program, 2. zadáme volbu č. 3, jako vstup zvolíme nečíselný datový typ str - písmenu, řetězec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program při nesprávném vstupu vypíše chybovou hlášku </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program při zadní písmena "x" vypsal chybovou hlášku </t>
+  </si>
+  <si>
+    <t>Scénář ověřuje, že funguje validace datového vstupu, jedná se o negativní scénář</t>
+  </si>
+  <si>
+    <t>Návra do hlavního menu</t>
+  </si>
+  <si>
+    <t>1. spustíme program, 2. přidáme úkol</t>
+  </si>
+  <si>
+    <t>Po přidání úkolu se zobrazí hlavní menu s nabídkou volby</t>
+  </si>
+  <si>
+    <t>Program správně po přidání úkolu přešel do hlavní nabídky</t>
+  </si>
+  <si>
+    <t>Scénář ověřuje, že po dokončení operace vždy zobrazí hlavní menu pro další výběr, nebo opakování výběru. Jedná se pozitivní scénář.</t>
+  </si>
+  <si>
+    <t>Zobrazení seznamu úkolů</t>
+  </si>
+  <si>
+    <t>1. spustíme program, 2. vypíšeme si seznam úkolů</t>
+  </si>
+  <si>
+    <t>Po zobrazení seznamu úkolu se zobrazí hlavní menu s nabídkou</t>
+  </si>
+  <si>
+    <t>Program správně po zobrazení úkolů přešel do hlavní nabídky</t>
+  </si>
+  <si>
+    <t>Odstranění úkolu</t>
+  </si>
+  <si>
+    <t>1. spustíme program, 2. odstraníme úkol</t>
+  </si>
+  <si>
+    <t>Po odstranění úkolu e potvrzení se zobrazí hlavní menu s nabídkou</t>
+  </si>
+  <si>
+    <t>Program správně po odstranění úkolu přešel do hlavní nabídky</t>
+  </si>
+  <si>
+    <t>Odstranění posledního úkolu</t>
+  </si>
+  <si>
+    <t>Po odstranění posledního seznamu úkolu a následném opětovném zobrazení seznamu úkolu vypíše hlášku, že je seznam úkolů prázdný</t>
+  </si>
+  <si>
+    <t>Program správně vypsal hlášku, že je seznam prázdný</t>
+  </si>
+  <si>
+    <t>Scénář ověřuje, že po odstranění posledního úkolu je seznam prázdný. Jedná se o hraniční scénář.</t>
+  </si>
+  <si>
+    <t>Po přidání úkolu se zobrazí menu</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>TC15</t>
   </si>
 </sst>
 </file>
@@ -210,6 +393,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -262,9 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,10 +781,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761B5DEF-33BF-074B-AAE4-F670F1DD4CAC}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,6 +840,9 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -681,6 +866,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
@@ -715,7 +903,10 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
@@ -739,6 +930,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -762,6 +956,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
@@ -785,6 +982,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -807,23 +1007,270 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
